--- a/sheet03/data/TobiasExecutionPC.xlsx
+++ b/sheet03/data/TobiasExecutionPC.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSimPresentation\sheet03\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA97ECE5-5E92-4648-9B50-4C30F7F1C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ManuelExecutionPC"/>
+    <sheet name="TobiasExecutionPC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,8 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,35 +95,1456 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="2000"/>
+              <a:t>Benchmark: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Cutoff Radius: 30, Domain: 300x300x3</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="2000"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1050" b="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Intel Core i5-12600 6-Core</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1050" b="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Processor 3.3GHz (4.8GHz Turbo)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1050" b="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>,16GB RAM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1050" b="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>WSL2 on Windows 11 (64-Bit)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13061947569561344"/>
+          <c:y val="0.19317687455653884"/>
+          <c:w val="0.83080518738644704"/>
+          <c:h val="0.64762712414250312"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DirectSum</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4207837355738606E-3"/>
+                  <c:y val="-3.8305061342163674E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TobiasExecutionPC!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TobiasExecutionPC!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244.738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>978.76800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-129E-486E-B642-D290D023304F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LinkedCells</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3489661167128873E-2"/>
+                  <c:y val="-3.9389539598948919E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TobiasExecutionPC!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TobiasExecutionPC!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.212000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-129E-486E-B642-D290D023304F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1029325616"/>
+        <c:axId val="1030472416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1029325616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>Particles [spawned in rectangles]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030472416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030472416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>Simulation Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029325616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C96BAD4-928E-47E4-B1C2-5BEE675866EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,10 +1552,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -167,71 +1593,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,7 +1685,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -282,11 +1708,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -295,13 +1721,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -311,7 +1737,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -320,7 +1746,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -329,7 +1755,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,10 +1763,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -405,26 +1831,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,80 +1857,65 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1000</v>
       </c>
-      <c r="B2" s="3">
-        <v>15.582</v>
+      <c r="B2" s="2">
+        <v>15.582000000000001</v>
       </c>
-      <c r="C2" s="3">
-        <v>12.437</v>
+      <c r="C2" s="2">
+        <v>12.436999999999999</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>61.991</v>
       </c>
-      <c r="C3" s="3">
-        <v>37.212</v>
+      <c r="C3" s="2">
+        <v>37.212000000000003</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>4000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>244.738</v>
       </c>
-      <c r="C4" s="3">
-        <v>88.208</v>
+      <c r="C4" s="2">
+        <v>88.207999999999998</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>8000</v>
       </c>
-      <c r="B5" s="3">
-        <v>978.768</v>
+      <c r="B5" s="2">
+        <v>978.76800000000003</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>195.6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>